--- a/PS3/testSets.xlsx
+++ b/PS3/testSets.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="390" windowWidth="12195" windowHeight="7395" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="390" windowWidth="12195" windowHeight="7395" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="sample_scenario1" sheetId="1" r:id="rId1"/>
     <sheet name="sample_scenario2" sheetId="4" r:id="rId2"/>
     <sheet name="sample_scenario3" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
   <si>
     <t>one</t>
   </si>
@@ -76,6 +77,21 @@
   </si>
   <si>
     <t>twenty</t>
+  </si>
+  <si>
+    <t>Set1</t>
+  </si>
+  <si>
+    <t>Set2</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Dictator</t>
+  </si>
+  <si>
+    <t>Set3</t>
   </si>
 </sst>
 </file>
@@ -615,6 +631,650 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Set1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set1 Justin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set1 Dictator</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="148251776"/>
+        <c:axId val="148373888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="148251776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="148373888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="148373888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="148251776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Set2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$B$9:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set2 Justin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$11:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$C$9:$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set2 Dictator</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$C$11:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="163377920"/>
+        <c:axId val="163379456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="163377920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="163379456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="163379456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="163377920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Set3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$B$17:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set3 Justin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$19:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$C$17:$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set3 Dictator</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$C$19:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="180844416"/>
+        <c:axId val="180845952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="180844416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="180845952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="180845952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="180844416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1382,7 +2042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1614,4 +2274,209 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>-20</v>
+      </c>
+      <c r="C3">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>-20</v>
+      </c>
+      <c r="C4">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>-20</v>
+      </c>
+      <c r="C5">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>-20</v>
+      </c>
+      <c r="C6">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>-20</v>
+      </c>
+      <c r="C7">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>-20</v>
+      </c>
+      <c r="C11">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>-20</v>
+      </c>
+      <c r="C12">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>-20</v>
+      </c>
+      <c r="C13">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>-20</v>
+      </c>
+      <c r="C14">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>-20</v>
+      </c>
+      <c r="C15">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>-20</v>
+      </c>
+      <c r="C19">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>-20</v>
+      </c>
+      <c r="C20">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>-20</v>
+      </c>
+      <c r="C21">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>-20</v>
+      </c>
+      <c r="C22">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>-20</v>
+      </c>
+      <c r="C23">
+        <v>-20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/PS3/testSets.xlsx
+++ b/PS3/testSets.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="390" windowWidth="12195" windowHeight="7395" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="390" windowWidth="12195" windowHeight="7395" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="sample_scenario1" sheetId="1" r:id="rId1"/>
     <sheet name="sample_scenario2" sheetId="4" r:id="rId2"/>
     <sheet name="sample_scenario3" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId4"/>
+    <sheet name="j vs d" sheetId="6" r:id="rId4"/>
+    <sheet name="j vs cb" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="26">
   <si>
     <t>one</t>
   </si>
@@ -92,6 +93,9 @@
   </si>
   <si>
     <t>Set3</t>
+  </si>
+  <si>
+    <t>CareBear</t>
   </si>
 </sst>
 </file>
@@ -678,7 +682,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$B$1:$B$2</c:f>
+              <c:f>'j vs d'!$A$24:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -690,7 +694,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$B$3:$B$7</c:f>
+              <c:f>'j vs d'!$A$26:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -718,7 +722,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$C$1:$C$2</c:f>
+              <c:f>'j vs d'!$B$24:$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -730,7 +734,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$C$3:$C$7</c:f>
+              <c:f>'j vs d'!$B$26:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -861,7 +865,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$B$9:$B$10</c:f>
+              <c:f>'j vs d'!$C$24:$C$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -873,7 +877,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$B$11:$B$15</c:f>
+              <c:f>'j vs d'!$C$26:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -901,7 +905,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$C$9:$C$10</c:f>
+              <c:f>'j vs d'!$D$24:$D$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -913,7 +917,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$C$11:$C$15</c:f>
+              <c:f>'j vs d'!$D$26:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1044,7 +1048,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$B$17:$B$18</c:f>
+              <c:f>'j vs d'!$E$24:$E$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1056,7 +1060,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$B$19:$B$23</c:f>
+              <c:f>'j vs d'!$E$26:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1084,7 +1088,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$C$17:$C$18</c:f>
+              <c:f>'j vs d'!$F$24:$F$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1096,7 +1100,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$C$19:$C$23</c:f>
+              <c:f>'j vs d'!$F$26:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1161,6 +1165,994 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="180844416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'j vs d'!$A$24:$F$25</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Justin</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Dictator</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Justin</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Dictator</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Justin</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Dictator</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Set1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Set2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Set3</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'j vs d'!$A$26:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'j vs d'!$A$24:$F$25</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Justin</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Dictator</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Justin</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Dictator</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Justin</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Dictator</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Set1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Set2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Set3</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'j vs d'!$A$27:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'j vs d'!$A$24:$F$25</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Justin</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Dictator</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Justin</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Dictator</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Justin</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Dictator</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Set1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Set2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Set3</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'j vs d'!$A$28:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'j vs d'!$A$24:$F$25</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Justin</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Dictator</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Justin</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Dictator</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Justin</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Dictator</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Set1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Set2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Set3</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'j vs d'!$A$29:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'j vs d'!$A$24:$F$25</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Justin</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Dictator</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Justin</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Dictator</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Justin</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Dictator</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Set1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Set2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Set3</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'j vs d'!$A$30:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="180998912"/>
+        <c:axId val="181000448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="180998912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="181000448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="181000448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="180998912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Set2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'j vs cb'!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set2 Justin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'j vs cb'!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>71.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'j vs cb'!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set2 CareBear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'j vs cb'!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>51.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="163392128"/>
+        <c:axId val="163393920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="163392128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="163393920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="163393920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="163392128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Set3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'j vs cb'!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set3 Justin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'j vs cb'!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'j vs cb'!$F$1:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set3 CareBear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'j vs cb'!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-118.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-122.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-88.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-118.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-128.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="180984448"/>
+        <c:axId val="191407616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="180984448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="191407616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="191407616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="180984448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Set1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'j vs cb'!$A$1:$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set1 Justin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'j vs cb'!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'j vs cb'!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set1 CareBear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'j vs cb'!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-120.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-112.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-122.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-110.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-112.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="171952000"/>
+        <c:axId val="171953536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="171952000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171953536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="171953536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171952000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1260,6 +2252,131 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2278,201 +3395,290 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A24:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-20</v>
+      </c>
+      <c r="B26">
+        <v>-20</v>
+      </c>
+      <c r="C26">
+        <v>-20</v>
+      </c>
+      <c r="D26">
+        <v>-20</v>
+      </c>
+      <c r="E26">
+        <v>-20</v>
+      </c>
+      <c r="F26">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-20</v>
+      </c>
+      <c r="B27">
+        <v>-20</v>
+      </c>
+      <c r="C27">
+        <v>-20</v>
+      </c>
+      <c r="D27">
+        <v>-20</v>
+      </c>
+      <c r="E27">
+        <v>-20</v>
+      </c>
+      <c r="F27">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-20</v>
+      </c>
+      <c r="B28">
+        <v>-20</v>
+      </c>
+      <c r="C28">
+        <v>-20</v>
+      </c>
+      <c r="D28">
+        <v>-20</v>
+      </c>
+      <c r="E28">
+        <v>-20</v>
+      </c>
+      <c r="F28">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>-20</v>
+      </c>
+      <c r="B29">
+        <v>-20</v>
+      </c>
+      <c r="C29">
+        <v>-20</v>
+      </c>
+      <c r="D29">
+        <v>-20</v>
+      </c>
+      <c r="E29">
+        <v>-20</v>
+      </c>
+      <c r="F29">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>-20</v>
+      </c>
+      <c r="B30">
+        <v>-20</v>
+      </c>
+      <c r="C30">
+        <v>-20</v>
+      </c>
+      <c r="D30">
+        <v>-20</v>
+      </c>
+      <c r="E30">
+        <v>-20</v>
+      </c>
+      <c r="F30">
+        <v>-20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>15.95</v>
+      </c>
       <c r="B3">
-        <v>-20</v>
+        <v>-120.04</v>
       </c>
       <c r="C3">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71.95</v>
+      </c>
+      <c r="D3">
+        <v>51.95</v>
+      </c>
+      <c r="E3">
+        <v>15.95</v>
+      </c>
+      <c r="F3">
+        <v>-118.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>19.95</v>
+      </c>
       <c r="B4">
-        <v>-20</v>
+        <v>-112.04</v>
       </c>
       <c r="C4">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71.95</v>
+      </c>
+      <c r="D4">
+        <v>51.95</v>
+      </c>
+      <c r="E4">
+        <v>29.95</v>
+      </c>
+      <c r="F4">
+        <v>-122.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>21.95</v>
+      </c>
       <c r="B5">
-        <v>-20</v>
+        <v>-122.04</v>
       </c>
       <c r="C5">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71.95</v>
+      </c>
+      <c r="D5">
+        <v>51.95</v>
+      </c>
+      <c r="E5">
+        <v>17.95</v>
+      </c>
+      <c r="F5">
+        <v>-88.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>13.95</v>
+      </c>
       <c r="B6">
-        <v>-20</v>
+        <v>-110.04</v>
       </c>
       <c r="C6">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71.95</v>
+      </c>
+      <c r="D6">
+        <v>51.95</v>
+      </c>
+      <c r="E6">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="F6">
+        <v>-118.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11.95</v>
+      </c>
       <c r="B7">
-        <v>-20</v>
+        <v>-112.04</v>
       </c>
       <c r="C7">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>-20</v>
-      </c>
-      <c r="C11">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>-20</v>
-      </c>
-      <c r="C12">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>-20</v>
-      </c>
-      <c r="C13">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>-20</v>
-      </c>
-      <c r="C14">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>-20</v>
-      </c>
-      <c r="C15">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>-20</v>
-      </c>
-      <c r="C19">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20">
-        <v>-20</v>
-      </c>
-      <c r="C20">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21">
-        <v>-20</v>
-      </c>
-      <c r="C21">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>4</v>
-      </c>
-      <c r="B22">
-        <v>-20</v>
-      </c>
-      <c r="C22">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23">
-        <v>-20</v>
-      </c>
-      <c r="C23">
-        <v>-20</v>
+        <v>71.95</v>
+      </c>
+      <c r="D7">
+        <v>51.95</v>
+      </c>
+      <c r="E7">
+        <v>27.95</v>
+      </c>
+      <c r="F7">
+        <v>-128.04</v>
       </c>
     </row>
   </sheetData>
